--- a/biology/Botanique/Altingiaceae/Altingiaceae.xlsx
+++ b/biology/Botanique/Altingiaceae/Altingiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Altingiaceae (Altingiacées) regroupe des plantes dicotylédones.
 Ce sont des arbres ou des arbustes, à feuilles persistantes ou caduques, alternes, des régions tempérées à tropicales tels que, par exemple, le copalme d'Amérique (Liquidambar styraciflua), un arbre au feuillage vert devenant rouge flamboyant en automne.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Altingia nommé en l'honneur de Willem Arnold Alting (en) (1724–1800), gouverneur général des indes néerlandaises. Altingia fut un synonyme de Liquidambar, nom composé du latin liquidus, liquide, et de ambar (en arabe : أمبار, ambre, baume?), se référant à la sève résineuse sucrée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Altingia nommé en l'honneur de Willem Arnold Alting (en) (1724–1800), gouverneur général des indes néerlandaises. Altingia fut un synonyme de Liquidambar, nom composé du latin liquidus, liquide, et de ambar (en arabe : أمبار, ambre, baume?), se référant à la sève résineuse sucrée.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Saxifragales.
 </t>
@@ -574,14 +590,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (23 février 2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (23 février 2018) :
 Altingia (de)
 Liquidambar
-Selon Angiosperm Phylogeny Website                        (23 février 2018)[3] :
+Selon Angiosperm Phylogeny Website                        (23 février 2018) :
 Liquidambar
-Selon DELTA Angio           (27 avr. 2010)[4] :
+Selon DELTA Angio           (27 avr. 2010) :
 Altingia
 Liquidambar
 Semiliquidambar
@@ -614,9 +632,11 @@
           <t>Liste des espèces du genre Altingia</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 avr. 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 avr. 2010) :
 Altingia chinensis
 Altingia excelsa
 Altingia gracilipes
